--- a/tests/gelir_tablosu_AKBNK.xlsx
+++ b/tests/gelir_tablosu_AKBNK.xlsx
@@ -606,19 +606,19 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>80838862000</v>
+      </c>
+      <c r="C2">
         <v>20609134000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>48202345000</v>
-      </c>
-      <c r="D2">
-        <v>85539153000</v>
       </c>
       <c r="E2">
         <v>85539153000</v>
       </c>
       <c r="F2">
-        <v>37176356000</v>
+        <v>131769840000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -626,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>47051028000</v>
+      </c>
+      <c r="C3">
         <v>12629012000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>28348097000</v>
-      </c>
-      <c r="D3">
-        <v>48170763000</v>
       </c>
       <c r="E3">
         <v>48170763000</v>
       </c>
       <c r="F3">
-        <v>22170902000</v>
+        <v>68741376000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -646,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>241176000</v>
-      </c>
-      <c r="C4">
-        <v>282414000</v>
       </c>
       <c r="D4">
         <v>282414000</v>
@@ -658,7 +658,7 @@
         <v>282414000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>282414000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -666,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>997671000</v>
+      </c>
+      <c r="C5">
         <v>20015000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>76753000</v>
-      </c>
-      <c r="D5">
-        <v>236753000</v>
       </c>
       <c r="E5">
         <v>236753000</v>
       </c>
       <c r="F5">
-        <v>385219000</v>
+        <v>489425000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -686,19 +686,19 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>668210000</v>
+      </c>
+      <c r="C6">
         <v>82179000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>107801000</v>
-      </c>
-      <c r="D6">
-        <v>161046000</v>
       </c>
       <c r="E6">
         <v>161046000</v>
       </c>
       <c r="F6">
-        <v>149676000</v>
+        <v>207845000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -706,19 +706,19 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>30665040000</v>
+      </c>
+      <c r="C7">
         <v>7372387000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18811983000</v>
-      </c>
-      <c r="D7">
-        <v>35674724000</v>
       </c>
       <c r="E7">
         <v>35674724000</v>
       </c>
       <c r="F7">
-        <v>13880878000</v>
+        <v>60571492000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -746,19 +746,19 @@
         <v>13</v>
       </c>
       <c r="B9">
+        <v>109948000</v>
+      </c>
+      <c r="C9">
         <v>24276000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>38639000</v>
-      </c>
-      <c r="D9">
-        <v>39758000</v>
       </c>
       <c r="E9">
         <v>39758000</v>
       </c>
       <c r="F9">
-        <v>40993000</v>
+        <v>70206000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -806,19 +806,19 @@
         <v>16</v>
       </c>
       <c r="B12">
+        <v>1301064000</v>
+      </c>
+      <c r="C12">
         <v>209705000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>457283000</v>
-      </c>
-      <c r="D12">
-        <v>754410000</v>
       </c>
       <c r="E12">
         <v>754410000</v>
       </c>
       <c r="F12">
-        <v>531966000</v>
+        <v>1162761000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -826,19 +826,19 @@
         <v>17</v>
       </c>
       <c r="B13">
+        <v>155849000</v>
+      </c>
+      <c r="C13">
         <v>54660000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>118014000</v>
-      </c>
-      <c r="D13">
-        <v>259043000</v>
       </c>
       <c r="E13">
         <v>259043000</v>
       </c>
       <c r="F13">
-        <v>57715000</v>
+        <v>314527000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -846,19 +846,19 @@
         <v>18</v>
       </c>
       <c r="B14">
+        <v>55723797000</v>
+      </c>
+      <c r="C14">
         <v>9050339000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>19896349000</v>
-      </c>
-      <c r="D14">
-        <v>35355841000</v>
       </c>
       <c r="E14">
         <v>35355841000</v>
       </c>
       <c r="F14">
-        <v>23436546000</v>
+        <v>52685992000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -866,19 +866,19 @@
         <v>19</v>
       </c>
       <c r="B15">
+        <v>47325929000</v>
+      </c>
+      <c r="C15">
         <v>6170102000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>13964762000</v>
-      </c>
-      <c r="D15">
-        <v>25567071000</v>
       </c>
       <c r="E15">
         <v>25567071000</v>
       </c>
       <c r="F15">
-        <v>19361698000</v>
+        <v>38943395000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -886,19 +886,19 @@
         <v>20</v>
       </c>
       <c r="B16">
+        <v>2899004000</v>
+      </c>
+      <c r="C16">
         <v>437301000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1066344000</v>
-      </c>
-      <c r="D16">
-        <v>1957041000</v>
       </c>
       <c r="E16">
         <v>1957041000</v>
       </c>
       <c r="F16">
-        <v>1308400000</v>
+        <v>3123264000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,19 +906,19 @@
         <v>21</v>
       </c>
       <c r="B17">
+        <v>2984049000</v>
+      </c>
+      <c r="C17">
         <v>1219969000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2548391000</v>
-      </c>
-      <c r="D17">
-        <v>3420608000</v>
       </c>
       <c r="E17">
         <v>3420608000</v>
       </c>
       <c r="F17">
-        <v>1279694000</v>
+        <v>4456856000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,19 +926,19 @@
         <v>22</v>
       </c>
       <c r="B18">
+        <v>2078774000</v>
+      </c>
+      <c r="C18">
         <v>959995000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1794751000</v>
-      </c>
-      <c r="D18">
-        <v>2995741000</v>
       </c>
       <c r="E18">
         <v>2995741000</v>
       </c>
       <c r="F18">
-        <v>1099381000</v>
+        <v>3932991000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,19 +946,19 @@
         <v>23</v>
       </c>
       <c r="B19">
+        <v>355115000</v>
+      </c>
+      <c r="C19">
         <v>239256000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>472241000</v>
-      </c>
-      <c r="D19">
-        <v>1336681000</v>
       </c>
       <c r="E19">
         <v>1336681000</v>
       </c>
       <c r="F19">
-        <v>351560000</v>
+        <v>2117764000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,19 +966,19 @@
         <v>24</v>
       </c>
       <c r="B20">
+        <v>25115065000</v>
+      </c>
+      <c r="C20">
         <v>11558795000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>28305996000</v>
-      </c>
-      <c r="D20">
-        <v>50183312000</v>
       </c>
       <c r="E20">
         <v>50183312000</v>
       </c>
       <c r="F20">
-        <v>13739810000</v>
+        <v>79083848000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,19 +986,19 @@
         <v>25</v>
       </c>
       <c r="B21">
+        <v>11771261000</v>
+      </c>
+      <c r="C21">
         <v>2047984000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4627343000</v>
-      </c>
-      <c r="D21">
-        <v>7732332000</v>
       </c>
       <c r="E21">
         <v>7732332000</v>
       </c>
       <c r="F21">
-        <v>5033378000</v>
+        <v>11888474000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,19 +1006,19 @@
         <v>26</v>
       </c>
       <c r="B22">
+        <v>14199265000</v>
+      </c>
+      <c r="C22">
         <v>2655774000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6010610000</v>
-      </c>
-      <c r="D22">
-        <v>10146785000</v>
       </c>
       <c r="E22">
         <v>10146785000</v>
       </c>
       <c r="F22">
-        <v>6087646000</v>
+        <v>15372150000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,19 +1026,19 @@
         <v>27</v>
       </c>
       <c r="B23">
+        <v>770534000</v>
+      </c>
+      <c r="C23">
         <v>207489000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>423943000</v>
-      </c>
-      <c r="D23">
-        <v>699674000</v>
       </c>
       <c r="E23">
         <v>699674000</v>
       </c>
       <c r="F23">
-        <v>315023000</v>
+        <v>1004684000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,19 +1046,19 @@
         <v>28</v>
       </c>
       <c r="B24">
+        <v>13428731000</v>
+      </c>
+      <c r="C24">
         <v>2448285000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5586667000</v>
-      </c>
-      <c r="D24">
-        <v>9447111000</v>
       </c>
       <c r="E24">
         <v>9447111000</v>
       </c>
       <c r="F24">
-        <v>5772623000</v>
+        <v>14367466000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,19 +1066,19 @@
         <v>29</v>
       </c>
       <c r="B25">
+        <v>2428004000</v>
+      </c>
+      <c r="C25">
         <v>607790000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1383267000</v>
-      </c>
-      <c r="D25">
-        <v>2414453000</v>
       </c>
       <c r="E25">
         <v>2414453000</v>
       </c>
       <c r="F25">
-        <v>1054268000</v>
+        <v>3483676000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,19 +1086,19 @@
         <v>30</v>
       </c>
       <c r="B26">
+        <v>2184000</v>
+      </c>
+      <c r="C26">
         <v>1290000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2339000</v>
-      </c>
-      <c r="D26">
-        <v>3457000</v>
       </c>
       <c r="E26">
         <v>3457000</v>
       </c>
       <c r="F26">
-        <v>1236000</v>
+        <v>4722000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,19 +1106,19 @@
         <v>31</v>
       </c>
       <c r="B27">
+        <v>2425820000</v>
+      </c>
+      <c r="C27">
         <v>606500000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1380928000</v>
-      </c>
-      <c r="D27">
-        <v>2410996000</v>
       </c>
       <c r="E27">
         <v>2410996000</v>
       </c>
       <c r="F27">
-        <v>1053032000</v>
+        <v>3478954000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,19 +1126,19 @@
         <v>32</v>
       </c>
       <c r="B28">
+        <v>61343000</v>
+      </c>
+      <c r="C28">
         <v>28902000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>52534000</v>
-      </c>
-      <c r="D28">
-        <v>63398000</v>
       </c>
       <c r="E28">
         <v>63398000</v>
       </c>
       <c r="F28">
-        <v>39158000</v>
+        <v>91618000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,19 +1146,19 @@
         <v>33</v>
       </c>
       <c r="B29">
+        <v>27659112000</v>
+      </c>
+      <c r="C29">
         <v>3564078000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>9004767000</v>
-      </c>
-      <c r="D29">
-        <v>12771103000</v>
       </c>
       <c r="E29">
         <v>12771103000</v>
       </c>
       <c r="F29">
-        <v>6480933000</v>
+        <v>16804289000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,19 +1166,19 @@
         <v>34</v>
       </c>
       <c r="B30">
+        <v>4141336000</v>
+      </c>
+      <c r="C30">
         <v>355093000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1070598000</v>
-      </c>
-      <c r="D30">
-        <v>1534431000</v>
       </c>
       <c r="E30">
         <v>1534431000</v>
       </c>
       <c r="F30">
-        <v>2060435000</v>
+        <v>2983305000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,19 +1186,19 @@
         <v>35</v>
       </c>
       <c r="B31">
+        <v>24462242000</v>
+      </c>
+      <c r="C31">
         <v>-4579993000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-6112712000</v>
-      </c>
-      <c r="D31">
-        <v>-9660988000</v>
       </c>
       <c r="E31">
         <v>-9660988000</v>
       </c>
       <c r="F31">
-        <v>2216432000</v>
+        <v>-13519444000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,19 +1206,19 @@
         <v>36</v>
       </c>
       <c r="B32">
+        <v>-944466000</v>
+      </c>
+      <c r="C32">
         <v>7788978000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14046881000</v>
-      </c>
-      <c r="D32">
-        <v>20897660000</v>
       </c>
       <c r="E32">
         <v>20897660000</v>
       </c>
       <c r="F32">
-        <v>2204066000</v>
+        <v>27340428000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1226,19 +1226,19 @@
         <v>37</v>
       </c>
       <c r="B33">
+        <v>2312319000</v>
+      </c>
+      <c r="C33">
         <v>908141000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2062244000</v>
-      </c>
-      <c r="D33">
-        <v>2816355000</v>
       </c>
       <c r="E33">
         <v>2816355000</v>
       </c>
       <c r="F33">
-        <v>1414948000</v>
+        <v>3908323000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1246,19 +1246,19 @@
         <v>38</v>
       </c>
       <c r="B34">
+        <v>66919100000</v>
+      </c>
+      <c r="C34">
         <v>18107900000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>44052884000</v>
-      </c>
-      <c r="D34">
-        <v>73566500000</v>
       </c>
       <c r="E34">
         <v>73566500000</v>
       </c>
       <c r="F34">
-        <v>26708227000</v>
+        <v>111776552000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1266,19 +1266,19 @@
         <v>39</v>
       </c>
       <c r="B35">
+        <v>7820008000</v>
+      </c>
+      <c r="C35">
         <v>3843242000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>7779689000</v>
-      </c>
-      <c r="D35">
-        <v>9403144000</v>
       </c>
       <c r="E35">
         <v>9403144000</v>
       </c>
       <c r="F35">
-        <v>3355502000</v>
+        <v>11079656000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1286,19 +1286,19 @@
         <v>40</v>
       </c>
       <c r="B36">
+        <v>13843174000</v>
+      </c>
+      <c r="C36">
         <v>2228286000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4940104000</v>
-      </c>
-      <c r="D36">
-        <v>8215065000</v>
       </c>
       <c r="E36">
         <v>8215065000</v>
       </c>
       <c r="F36">
-        <v>6951382000</v>
+        <v>13532213000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1306,19 +1306,19 @@
         <v>41</v>
       </c>
       <c r="B37">
+        <v>38805434000</v>
+      </c>
+      <c r="C37">
         <v>10664295000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>28614569000</v>
-      </c>
-      <c r="D37">
-        <v>51348055000</v>
       </c>
       <c r="E37">
         <v>51348055000</v>
       </c>
       <c r="F37">
-        <v>13086080000</v>
+        <v>80270808000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3791000</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>45</v>
       </c>
       <c r="B41">
+        <v>38809225000</v>
+      </c>
+      <c r="C41">
         <v>10664295000</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>28614569000</v>
-      </c>
-      <c r="D41">
-        <v>51348055000</v>
       </c>
       <c r="E41">
         <v>51348055000</v>
       </c>
       <c r="F41">
-        <v>13086080000</v>
+        <v>80270808000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1406,19 +1406,19 @@
         <v>46</v>
       </c>
       <c r="B42">
+        <v>7790873000</v>
+      </c>
+      <c r="C42">
         <v>2615037000</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>7458035000</v>
-      </c>
-      <c r="D42">
-        <v>13125186000</v>
       </c>
       <c r="E42">
         <v>13125186000</v>
       </c>
       <c r="F42">
-        <v>2374941000</v>
+        <v>20245101000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1426,19 +1426,19 @@
         <v>47</v>
       </c>
       <c r="B43">
+        <v>1174868000</v>
+      </c>
+      <c r="C43">
         <v>10656105000</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>3864860000</v>
-      </c>
-      <c r="D43">
-        <v>12307117000</v>
       </c>
       <c r="E43">
         <v>12307117000</v>
       </c>
       <c r="F43">
-        <v>3397311000</v>
+        <v>20613875000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1446,19 +1446,19 @@
         <v>48</v>
       </c>
       <c r="B44">
+        <v>6616005000</v>
+      </c>
+      <c r="C44">
         <v>-8041068000</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>3593175000</v>
-      </c>
-      <c r="D44">
-        <v>818069000</v>
       </c>
       <c r="E44">
         <v>818069000</v>
       </c>
       <c r="F44">
-        <v>-1022370000</v>
+        <v>-368774000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1466,19 +1466,19 @@
         <v>49</v>
       </c>
       <c r="B45">
+        <v>31018352000</v>
+      </c>
+      <c r="C45">
         <v>8049258000</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>21156534000</v>
-      </c>
-      <c r="D45">
-        <v>38222869000</v>
       </c>
       <c r="E45">
         <v>38222869000</v>
       </c>
       <c r="F45">
-        <v>10711139000</v>
+        <v>60025707000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1766,19 +1766,19 @@
         <v>64</v>
       </c>
       <c r="B60">
+        <v>31018352000</v>
+      </c>
+      <c r="C60">
         <v>8049258000</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>21156534000</v>
-      </c>
-      <c r="D60">
-        <v>38222869000</v>
       </c>
       <c r="E60">
         <v>38222869000</v>
       </c>
       <c r="F60">
-        <v>10711139000</v>
+        <v>60025707000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1786,19 +1786,19 @@
         <v>65</v>
       </c>
       <c r="B61">
+        <v>31018352000</v>
+      </c>
+      <c r="C61">
         <v>8049258000</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>21156534000</v>
-      </c>
-      <c r="D61">
-        <v>38222869000</v>
       </c>
       <c r="E61">
         <v>38222869000</v>
       </c>
       <c r="F61">
-        <v>10711139000</v>
+        <v>60025707000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
